--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt5a-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt5a-Fzd3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2590246666666667</v>
+        <v>0.274713</v>
       </c>
       <c r="N2">
-        <v>0.777074</v>
+        <v>0.824139</v>
       </c>
       <c r="O2">
-        <v>0.1073177818850196</v>
+        <v>0.1055967877339779</v>
       </c>
       <c r="P2">
-        <v>0.1073177818850196</v>
+        <v>0.1055967877339779</v>
       </c>
       <c r="Q2">
-        <v>0.04141813054155556</v>
+        <v>0.043926700271</v>
       </c>
       <c r="R2">
-        <v>0.3727631748740001</v>
+        <v>0.395340302439</v>
       </c>
       <c r="S2">
-        <v>0.002841530119103444</v>
+        <v>0.00279596211882344</v>
       </c>
       <c r="T2">
-        <v>0.002841530119103445</v>
+        <v>0.002795962118823441</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +620,10 @@
         <v>2.666015</v>
       </c>
       <c r="O3">
-        <v>0.3681899230603399</v>
+        <v>0.3415960415058637</v>
       </c>
       <c r="P3">
-        <v>0.3681899230603399</v>
+        <v>0.3415960415058638</v>
       </c>
       <c r="Q3">
         <v>0.1420988957238889</v>
@@ -635,10 +632,10 @@
         <v>1.278890061515</v>
       </c>
       <c r="S3">
-        <v>0.009748829481467103</v>
+        <v>0.009044684146988642</v>
       </c>
       <c r="T3">
-        <v>0.009748829481467105</v>
+        <v>0.009044684146988646</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,33 +676,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.265788666666667</v>
+        <v>1.438143333333333</v>
       </c>
       <c r="N4">
-        <v>3.797366</v>
+        <v>4.31443</v>
       </c>
       <c r="O4">
-        <v>0.524435119596833</v>
+        <v>0.5528071707601584</v>
       </c>
       <c r="P4">
-        <v>0.524435119596833</v>
+        <v>0.5528071707601584</v>
       </c>
       <c r="Q4">
-        <v>0.2024000297295556</v>
+        <v>0.2299595983811111</v>
       </c>
       <c r="R4">
-        <v>1.821600267566</v>
+        <v>2.06963638543</v>
       </c>
       <c r="S4">
-        <v>0.01388584595837638</v>
+        <v>0.01463707316886522</v>
       </c>
       <c r="T4">
-        <v>0.01388584595837638</v>
+        <v>0.01463707316886522</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -714,55 +711,55 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1599003333333333</v>
+        <v>5.879152</v>
       </c>
       <c r="H5">
-        <v>0.479701</v>
+        <v>17.637456</v>
       </c>
       <c r="I5">
-        <v>0.0264777194346773</v>
+        <v>0.9735222805653226</v>
       </c>
       <c r="J5">
-        <v>0.02647771943467731</v>
+        <v>0.9735222805653228</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.000138</v>
+        <v>0.274713</v>
       </c>
       <c r="N5">
-        <v>0.000414</v>
+        <v>0.824139</v>
       </c>
       <c r="O5">
-        <v>5.71754578076195E-05</v>
+        <v>0.1055967877339779</v>
       </c>
       <c r="P5">
-        <v>5.717545780761951E-05</v>
+        <v>0.1055967877339779</v>
       </c>
       <c r="Q5">
-        <v>2.2066246E-05</v>
+        <v>1.615079483376</v>
       </c>
       <c r="R5">
-        <v>0.000198596214</v>
+        <v>14.535715350384</v>
       </c>
       <c r="S5">
-        <v>1.513875730379379E-06</v>
+        <v>0.1028008256151544</v>
       </c>
       <c r="T5">
-        <v>1.51387573037938E-06</v>
+        <v>0.1028008256151544</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +773,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -803,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2590246666666667</v>
+        <v>0.8886716666666666</v>
       </c>
       <c r="N6">
-        <v>0.777074</v>
+        <v>2.666015</v>
       </c>
       <c r="O6">
-        <v>0.1073177818850196</v>
+        <v>0.3415960415058637</v>
       </c>
       <c r="P6">
-        <v>0.1073177818850196</v>
+        <v>0.3415960415058638</v>
       </c>
       <c r="Q6">
-        <v>1.522845387082667</v>
+        <v>5.224635806426667</v>
       </c>
       <c r="R6">
-        <v>13.705608483744</v>
+        <v>47.02172225784</v>
       </c>
       <c r="S6">
-        <v>0.1044762517659162</v>
+        <v>0.332551357358875</v>
       </c>
       <c r="T6">
-        <v>0.1044762517659162</v>
+        <v>0.3325513573588751</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +835,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -865,152 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8886716666666666</v>
+        <v>1.438143333333333</v>
       </c>
       <c r="N7">
-        <v>2.666015</v>
+        <v>4.31443</v>
       </c>
       <c r="O7">
-        <v>0.3681899230603399</v>
+        <v>0.5528071707601584</v>
       </c>
       <c r="P7">
-        <v>0.3681899230603399</v>
+        <v>0.5528071707601584</v>
       </c>
       <c r="Q7">
-        <v>5.224635806426667</v>
+        <v>8.455063254453334</v>
       </c>
       <c r="R7">
-        <v>47.02172225784</v>
+        <v>76.09556929007999</v>
       </c>
       <c r="S7">
-        <v>0.3584410935788728</v>
+        <v>0.5381700975912932</v>
       </c>
       <c r="T7">
-        <v>0.3584410935788728</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>5.879152</v>
-      </c>
-      <c r="H8">
-        <v>17.637456</v>
-      </c>
-      <c r="I8">
-        <v>0.9735222805653226</v>
-      </c>
-      <c r="J8">
-        <v>0.9735222805653228</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1.265788666666667</v>
-      </c>
-      <c r="N8">
-        <v>3.797366</v>
-      </c>
-      <c r="O8">
-        <v>0.524435119596833</v>
-      </c>
-      <c r="P8">
-        <v>0.524435119596833</v>
-      </c>
-      <c r="Q8">
-        <v>7.441763971210667</v>
-      </c>
-      <c r="R8">
-        <v>66.975875740896</v>
-      </c>
-      <c r="S8">
-        <v>0.5105492736384566</v>
-      </c>
-      <c r="T8">
-        <v>0.5105492736384566</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>5.879152</v>
-      </c>
-      <c r="H9">
-        <v>17.637456</v>
-      </c>
-      <c r="I9">
-        <v>0.9735222805653226</v>
-      </c>
-      <c r="J9">
-        <v>0.9735222805653228</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.000138</v>
-      </c>
-      <c r="N9">
-        <v>0.000414</v>
-      </c>
-      <c r="O9">
-        <v>5.71754578076195E-05</v>
-      </c>
-      <c r="P9">
-        <v>5.717545780761951E-05</v>
-      </c>
-      <c r="Q9">
-        <v>0.0008113229760000001</v>
-      </c>
-      <c r="R9">
-        <v>0.007301906784</v>
-      </c>
-      <c r="S9">
-        <v>5.566158207724011E-05</v>
-      </c>
-      <c r="T9">
-        <v>5.566158207724013E-05</v>
+        <v>0.5381700975912932</v>
       </c>
     </row>
   </sheetData>
